--- a/Снять.xlsx
+++ b/Снять.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igor/HSE/python/HSEPythonProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED85AB7-5608-8D44-AD00-E338C7ECECCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AB1C49-0D23-9244-A356-57929A38E7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19260" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
